--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -1,35 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126E995-C5AE-4DC9-86E3-F91974E83EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Player" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
+    <author>nghia</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +90,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{EAB5F5B3-D1A0-4264-9786-E3D1950BADAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nghia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+player hien dang la 3.5 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,6 +287,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -548,30 +589,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -614,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -640,7 +681,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -666,7 +707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -692,7 +733,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -718,7 +759,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -744,7 +785,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -770,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -796,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -822,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>

--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ba Sumo\Documents\Projects\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126E995-C5AE-4DC9-86E3-F91974E83EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Player" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,13 +36,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
     <author>nghia</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -58,14 +59,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 là damage chính +- số này</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -82,14 +83,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 (&gt;10)</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{EAB5F5B3-D1A0-4264-9786-E3D1950BADAF}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>nghia:</t>
         </r>
@@ -106,14 +107,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 player hien dang la 3.5 </t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -130,14 +131,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 gold</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -154,7 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 (3.5 base)
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +171,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -179,7 +180,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
  (1 ground=6)</t>
@@ -226,8 +227,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,20 +240,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -271,31 +266,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,30 +589,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="7" width="20.88671875" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -679,22 +655,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>300</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
       <c r="D3">
-        <f>10*A3</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -703,28 +678,24 @@
         <v>3.5</v>
       </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <f>INT(B3*1.25)</f>
-        <v>375</v>
-      </c>
-      <c r="C4" s="1">
-        <f>INT(C3*1.25)</f>
-        <v>125</v>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D22" si="0">10*A4</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <f>E3-0.05</f>
-        <v>1.95</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -733,29 +704,24 @@
         <v>3.5</v>
       </c>
       <c r="H4">
-        <f>INT(H3*2.25)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B22" si="1">INT(B4*1.25)</f>
-        <v>468</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C21" si="2">INT(C4*1.25)</f>
-        <v>156</v>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E22" si="3">E4-0.05</f>
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -764,29 +730,24 @@
         <v>3.5</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H22" si="4">INT(H4*2.25)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>585</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="2"/>
-        <v>195</v>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
-        <v>1.8499999999999999</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -795,29 +756,24 @@
         <v>3.5</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>731</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="2"/>
-        <v>243</v>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>1.7999999999999998</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -826,29 +782,24 @@
         <v>3.5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="1"/>
-        <v>913</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="2"/>
-        <v>303</v>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
-        <v>1.7499999999999998</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -857,29 +808,24 @@
         <v>3.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="1"/>
-        <v>1141</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="2"/>
-        <v>378</v>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
-        <v>1.6999999999999997</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -888,29 +834,24 @@
         <v>3.5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="1"/>
-        <v>1426</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="2"/>
-        <v>472</v>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>1.6499999999999997</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -919,29 +860,24 @@
         <v>3.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" si="1"/>
-        <v>1782</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>590</v>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>1.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -950,288 +886,11 @@
         <v>3.5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>2227</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="2"/>
-        <v>737</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>1.5499999999999996</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>6970</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
         <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="1"/>
-        <v>2783</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>921</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999996</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>15682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="1"/>
-        <v>3478</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>1151</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>1.4499999999999995</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>35284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="1"/>
-        <v>4347</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>1438</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>1.3999999999999995</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>79389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="1"/>
-        <v>5433</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>1797</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>1.3499999999999994</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>178625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="1"/>
-        <v>6791</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>2246</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1.2999999999999994</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>401906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="1"/>
-        <v>8488</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>2807</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>1.2499999999999993</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>904288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="1"/>
-        <v>10610</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
-        <v>3508</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>1.1999999999999993</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>2034648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="1"/>
-        <v>13262</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="2"/>
-        <v>4385</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>1.1499999999999992</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>4577958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>16577</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="2"/>
-        <v>5481</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>1.0999999999999992</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>10300405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>20721</v>
-      </c>
-      <c r="C22" s="1">
-        <f>INT(C21*1.25)</f>
-        <v>6851</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>1.0499999999999992</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>23175911</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia\Documents\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126E995-C5AE-4DC9-86E3-F91974E83EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Player" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,13 +35,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
     <author>nghia</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{EAB5F5B3-D1A0-4264-9786-E3D1950BADAF}">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Level</t>
   </si>
@@ -212,9 +211,6 @@
     <t>BaseDamage</t>
   </si>
   <si>
-    <t>RandomValue</t>
-  </si>
-  <si>
     <t>AttackRange</t>
   </si>
   <si>
@@ -222,12 +218,18 @@
   </si>
   <si>
     <t>UpgradePrice</t>
+  </si>
+  <si>
+    <t>RandomDamage</t>
+  </si>
+  <si>
+    <t>AnimSpeed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,30 +591,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
-    <col min="6" max="7" width="20.88671875" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,22 +625,25 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -651,11 +656,20 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -669,19 +683,22 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>3.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -695,19 +712,22 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
         <v>3.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -721,19 +741,22 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
         <v>3.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -747,19 +770,22 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>3.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -773,19 +799,22 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
         <v>3.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -802,16 +831,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>3.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -828,16 +860,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
         <v>3.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -854,16 +889,19 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
         <v>3.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -880,12 +918,15 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
         <v>3.5</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>11</v>
       </c>
     </row>

--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ba Sumo\Documents\Projects\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-27990" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Player" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -58,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 là damage chính +- số này</t>
@@ -73,7 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -82,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (&gt;10)</t>
@@ -97,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nghia:</t>
         </r>
@@ -106,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 player hien dang la 3.5 </t>
@@ -121,7 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -130,7 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 gold</t>
@@ -145,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -154,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (3.5 base)
@@ -170,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -179,7 +179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
  (1 ground=6)</t>
@@ -242,14 +242,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,7 +595,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-27060" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Player" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -268,12 +274,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -669,269 +765,589 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>3.5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>375</v>
+      </c>
+      <c r="C4" s="5">
+        <v>125</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>3.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>468</v>
+      </c>
+      <c r="C5" s="5">
+        <v>156</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>3.5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>585</v>
+      </c>
+      <c r="C6" s="5">
+        <v>195</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>731</v>
+      </c>
+      <c r="C7" s="5">
+        <v>243</v>
+      </c>
+      <c r="D7" s="4">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>3.5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>913</v>
+      </c>
+      <c r="C8" s="5">
+        <v>303</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>3.5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1141</v>
+      </c>
+      <c r="C9" s="5">
+        <v>378</v>
+      </c>
+      <c r="D9" s="4">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1426</v>
+      </c>
+      <c r="C10" s="5">
+        <v>472</v>
+      </c>
+      <c r="D10" s="4">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>3.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1782</v>
+      </c>
+      <c r="C11" s="5">
+        <v>590</v>
+      </c>
+      <c r="D11" s="4">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>3.5</v>
-      </c>
-      <c r="I3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
+      <c r="B12" s="5">
+        <v>2227</v>
+      </c>
+      <c r="C12" s="5">
+        <v>737</v>
+      </c>
+      <c r="D12" s="4">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>3.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2783</v>
+      </c>
+      <c r="C13" s="5">
+        <v>921</v>
+      </c>
+      <c r="D13" s="4">
+        <v>110</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>3.5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>15682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3478</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1151</v>
+      </c>
+      <c r="D14" s="4">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>3.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>35284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4347</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1438</v>
+      </c>
+      <c r="D15" s="4">
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>3.5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>79389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5433</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1797</v>
+      </c>
+      <c r="D16" s="4">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>3.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>178625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>3.5</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>70</v>
-      </c>
-      <c r="C5">
+      <c r="B17" s="5">
+        <v>6791</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2246</v>
+      </c>
+      <c r="D17" s="4">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>3.5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>401906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8488</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2807</v>
+      </c>
+      <c r="D18" s="4">
+        <v>160</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>3.5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>904288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10610</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3508</v>
+      </c>
+      <c r="D19" s="4">
+        <v>170</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>3.5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2034648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>13262</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4385</v>
+      </c>
+      <c r="D20" s="4">
+        <v>180</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>3.5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4577958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>16577</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5481</v>
+      </c>
+      <c r="D21" s="4">
+        <v>190</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>3.5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10300405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>3.5</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>3.5</v>
-      </c>
-      <c r="I6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>3.5</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>3.5</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>3.5</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>3.5</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>3.5</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
+      <c r="B22" s="5">
+        <v>20721</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6851</v>
+      </c>
+      <c r="D22" s="4">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
+      <c r="I22" s="4">
+        <v>23175911</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ba Sumo\Documents\Projects\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,19 +674,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>11111</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -712,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -741,10 +741,10 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -770,10 +770,10 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>7</v>

--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27060" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-26130" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Player" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Game\Evolver\Assets\8_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\evolverFromGit\Assets\8_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -674,10 +674,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11111</v>
+        <f>3*2</f>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -686,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -703,7 +704,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <f>3*2</f>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>15</v>

--- a/Assets/8_Data/0_PlayerData.xlsx
+++ b/Assets/8_Data/0_PlayerData.xlsx
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,8 +674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>3*2</f>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>10</v>
